--- a/Quizzessamples.xlsx
+++ b/Quizzessamples.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magdalenamichalak/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulsalim/Desktop/FinalYEARProject/myskill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231DD2B9-A186-EC48-9FAB-C0445401F0F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{3D5EA594-9D4C-B44F-B073-3B71CCA82A30}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Geography trivia" sheetId="1" r:id="rId1"/>
@@ -19,9 +18,15 @@
     <sheet name="Science Trivia" sheetId="4" r:id="rId4"/>
     <sheet name="Car Trivia" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1050,8 +1055,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1440,16 +1445,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3CFAF1-E2E2-A24F-9A3A-B8BEE404A867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="B5:F5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="59.83203125" customWidth="1"/>
+    <col min="3" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1526,7 +1537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1586,7 +1597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1606,7 +1617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1646,7 +1657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1666,7 +1677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1706,7 +1717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1746,7 +1757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1846,7 +1857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1872,16 +1883,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ACE94D-01B2-B44D-A2AC-B24A6010543D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1917,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1918,7 +1937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1938,7 +1957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1958,7 +1977,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1978,7 +1997,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1986,7 +2005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
@@ -2006,7 +2025,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>7</v>
       </c>
@@ -2026,7 +2045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2046,7 +2065,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2066,7 +2085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2086,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11</v>
       </c>
@@ -2106,7 +2125,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2126,7 +2145,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>13</v>
       </c>
@@ -2146,7 +2165,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>14</v>
       </c>
@@ -2166,7 +2185,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>15</v>
       </c>
@@ -2186,7 +2205,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>16</v>
       </c>
@@ -2206,7 +2225,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>17</v>
       </c>
@@ -2226,7 +2245,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>18</v>
       </c>
@@ -2246,7 +2265,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>19</v>
       </c>
@@ -2266,7 +2285,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>20</v>
       </c>
@@ -2292,16 +2311,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58CE54-7C64-7841-BF1F-624FDCBB6A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1</v>
       </c>
@@ -2338,7 +2357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>2</v>
       </c>
@@ -2358,7 +2377,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>3</v>
       </c>
@@ -2378,7 +2397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>4</v>
       </c>
@@ -2398,7 +2417,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>5</v>
       </c>
@@ -2418,7 +2437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>6</v>
       </c>
@@ -2438,7 +2457,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>7</v>
       </c>
@@ -2458,7 +2477,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>8</v>
       </c>
@@ -2478,7 +2497,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>9</v>
       </c>
@@ -2498,7 +2517,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>10</v>
       </c>
@@ -2518,7 +2537,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>11</v>
       </c>
@@ -2538,7 +2557,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>12</v>
       </c>
@@ -2558,7 +2577,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>13</v>
       </c>
@@ -2578,17 +2597,17 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>16</v>
       </c>
@@ -2608,7 +2627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>17</v>
       </c>
@@ -2628,17 +2647,17 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>20</v>
       </c>
@@ -2649,16 +2668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D55C7D-4CC7-5C45-9A70-71AE6C9C6CE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2695,7 +2714,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -2735,7 +2754,7 @@
         <v>3.1139999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -2755,7 +2774,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2775,7 +2794,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
@@ -2795,7 +2814,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>7</v>
       </c>
@@ -2815,7 +2834,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2835,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2855,7 +2874,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2875,7 +2894,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11</v>
       </c>
@@ -2895,7 +2914,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2915,7 +2934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>13</v>
       </c>
@@ -2935,7 +2954,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>14</v>
       </c>
@@ -2955,7 +2974,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>15</v>
       </c>
@@ -2975,7 +2994,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>16</v>
       </c>
@@ -2995,7 +3014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>17</v>
       </c>
@@ -3015,7 +3034,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>18</v>
       </c>
@@ -3035,7 +3054,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>19</v>
       </c>
@@ -3055,7 +3074,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>20</v>
       </c>
@@ -3081,16 +3100,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1784D5B-1111-A242-98AC-E4286678FC1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3127,7 +3146,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3147,7 +3166,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -3167,7 +3186,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -3207,7 +3226,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
@@ -3227,7 +3246,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>7</v>
       </c>
@@ -3247,7 +3266,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>8</v>
       </c>
@@ -3267,7 +3286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>9</v>
       </c>
@@ -3287,7 +3306,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10</v>
       </c>
@@ -3307,7 +3326,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11</v>
       </c>
@@ -3327,7 +3346,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>12</v>
       </c>
@@ -3347,7 +3366,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>13</v>
       </c>
@@ -3367,44 +3386,44 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://trivia.fyi/content/what-luxury-british-automobile-brand-was-purchased-tata-motors-2008/" xr:uid="{6E14B23F-1FAF-4342-9E2D-FF61874499F1}"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://trivia.fyi/content/what-luxury-british-automobile-brand-was-purchased-tata-motors-2008/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
